--- a/profiles/static/template_kpi/Yearly-template.xlsx
+++ b/profiles/static/template_kpi/Yearly-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Inputs" sheetId="1" r:id="rId1"/>
@@ -156,11 +156,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -183,6 +178,21 @@
     <t>$  Sales by top customers</t>
   </si>
   <si>
+    <t>Customer A</t>
+  </si>
+  <si>
+    <t>Customer B</t>
+  </si>
+  <si>
+    <t>Customer C</t>
+  </si>
+  <si>
+    <t>Customer D</t>
+  </si>
+  <si>
+    <t>Customer E</t>
+  </si>
+  <si>
     <t>All Other Customers</t>
   </si>
   <si>
@@ -313,21 +323,6 @@
   </si>
   <si>
     <t>Equity</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Eoghan</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>Shaun</t>
   </si>
   <si>
     <t>Please use 1 local/main currency</t>
@@ -445,6 +440,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -455,21 +465,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -487,7 +482,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -495,15 +489,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,15 +522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:colOff>1438275</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -544,8 +539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571625" y="9458325"/>
-          <a:ext cx="1847850" cy="247650"/>
+          <a:off x="1885950" y="9477375"/>
+          <a:ext cx="1762125" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,11 +576,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Ending inventory</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> prior year</a:t>
+            <a:t>Ending inventory prior year</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -597,13 +588,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2162175</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -618,7 +609,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2609850" y="9315450"/>
+          <a:off x="2609850" y="9334500"/>
           <a:ext cx="844550" cy="136525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -648,15 +639,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:colOff>1247775</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2324100</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -665,8 +656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857375" y="9972676"/>
-          <a:ext cx="971550" cy="485774"/>
+          <a:off x="1695450" y="10001251"/>
+          <a:ext cx="1076325" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -701,14 +692,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Local currency value per</a:t>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Local</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> item</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> currency value per item</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -719,13 +710,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2057400</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2400300</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -740,7 +731,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505075" y="10458450"/>
+          <a:off x="2505075" y="10506075"/>
           <a:ext cx="342900" cy="88900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1293,7 +1284,7 @@
       <selection activeCell="F19" sqref="F19"/>
       <selection pane="topRight" activeCell="F19" sqref="F19"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1292,7 @@
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1327,56 +1318,56 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4">
         <f>SUM(F6:F11)</f>
@@ -1393,15 +1384,15 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4">
         <f>F12-F16</f>
@@ -1418,7 +1409,7 @@
     </row>
     <row r="18" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6" t="e">
         <f>F17/F12</f>
@@ -1435,23 +1426,23 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F22" s="4">
         <f>SUM(F20:F21)</f>
@@ -1473,11 +1464,11 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
@@ -1486,11 +1477,11 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
@@ -1499,19 +1490,19 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
@@ -1520,15 +1511,15 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4">
         <f>F17-F22-F24-F26-F28-F29-F31</f>
@@ -1545,38 +1536,38 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="8">
+        <v>25</v>
+      </c>
+      <c r="F37" s="7">
         <f>$B$38*F33</f>
         <v>0</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <f t="shared" ref="G37:H37" si="3">$B$38*G33</f>
         <v>0</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F39" s="4">
         <f>F33-F35-F37</f>
@@ -1593,7 +1584,7 @@
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F40" s="6" t="e">
         <f>F39/F12</f>
@@ -1610,244 +1601,241 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21">
+    <row r="46" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19">
         <f>E49</f>
         <v>0</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="19">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="19">
         <f>G49</f>
         <v>0</v>
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+    <row r="47" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
       <c r="I47"/>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="12">
+    <row r="49" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="11">
         <f>(F46+F47-F48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <f>(G46+G47-G48)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <f>(H46+H47-H48)</f>
         <v>0</v>
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:10" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="9" t="s">
+    <row r="51" spans="1:9" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="8">
+    </row>
+    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="7">
         <f>IF(F49&gt;0,F49*$D$56,0)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <f>IF(G49&gt;0,G49*$D$56,0)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <f>IF(H49&gt;0,H49*$D$56,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="8">
+    <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="7">
         <f t="shared" ref="F58:G58" si="5">SUM(F54:F57)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="7">
         <f>SUM(H54:H57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="8">
+    <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="23">
         <f>F58+F60</f>
         <v>0</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="7">
         <f>G58+G60</f>
         <v>0</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="7">
         <f>H58+H60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J62" s="21"/>
-    </row>
-    <row r="63" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="14">
+    <row r="62" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="13">
         <f>SUM(F64:F66)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="13">
         <f t="shared" ref="G67:H67" si="6">SUM(G64:G66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>47</v>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="F70" s="4">
         <f>F69+F67</f>
@@ -1862,9 +1850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
-        <v>48</v>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F71" s="4">
         <f>F61-F70</f>
@@ -1891,7 +1879,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1913,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1956,8 +1944,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003258C42F28A6254AA15E76B7A2163769" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="312459a1490c7cd55f1d40c0151d0117">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de4839cc-f48b-48be-962f-21b99114152a" xmlns:ns3="66abbd11-5fa5-4fb5-934f-c9dafa9719a5" xmlns:ns4="4dc371fa-f391-4a02-9320-6a0c1df9692b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81f7010a5ed0f7a6f954002ba2dc94c3" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003258C42F28A6254AA15E76B7A2163769" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4847a6efb36ae149d25be596393daea">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de4839cc-f48b-48be-962f-21b99114152a" xmlns:ns3="66abbd11-5fa5-4fb5-934f-c9dafa9719a5" xmlns:ns4="4dc371fa-f391-4a02-9320-6a0c1df9692b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80b56418d54338c1b0abb634bee31f0d" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="de4839cc-f48b-48be-962f-21b99114152a"/>
     <xsd:import namespace="66abbd11-5fa5-4fb5-934f-c9dafa9719a5"/>
     <xsd:import namespace="4dc371fa-f391-4a02-9320-6a0c1df9692b"/>
@@ -1975,7 +1972,6 @@
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2043,11 +2039,6 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2165,35 +2156,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7F4181-7CEA-4380-9171-0EF0E1399DCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="66abbd11-5fa5-4fb5-934f-c9dafa9719a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4dc371fa-f391-4a02-9320-6a0c1df9692b"/>
     <ds:schemaRef ds:uri="de4839cc-f48b-48be-962f-21b99114152a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA20A293-7E05-4F9F-90D5-9F8C1790FACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2999D7D-0F70-4ADB-98C6-1202F6D46598}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0FE891-3602-4448-BDCD-338642847D9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2210,12 +2200,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2999D7D-0F70-4ADB-98C6-1202F6D46598}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>